--- a/EU_PARK/europark_raw_files/Voltron Nevera - Queue times in April 2024.xlsx
+++ b/EU_PARK/europark_raw_files/Voltron Nevera - Queue times in April 2024.xlsx
@@ -804,7 +804,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2024-04-26T06:19:00.000Z</v>
+        <v>2024-04-26T09:49:00.000Z</v>
       </c>
       <c r="B51" t="str">
         <v>N/A</v>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="490">
       <c r="A490" t="str">
-        <v>2024-04-26T13:46:00.000Z</v>
+        <v>2024-04-26T17:16:00.000Z</v>
       </c>
       <c r="B490" t="str">
         <v>N/A</v>
@@ -9652,7 +9652,7 @@
     </row>
     <row r="1157">
       <c r="A1157" t="str">
-        <v>2024-04-27T14:46:00.000Z</v>
+        <v>2024-04-27T18:16:00.000Z</v>
       </c>
       <c r="B1157" t="str">
         <v>N/A</v>
@@ -14716,7 +14716,7 @@
     </row>
     <row r="1790">
       <c r="A1790" t="str">
-        <v>2024-04-28T13:46:00.000Z</v>
+        <v>2024-04-28T17:16:00.000Z</v>
       </c>
       <c r="B1790" t="str">
         <v>N/A</v>
@@ -19716,7 +19716,7 @@
     </row>
     <row r="2415">
       <c r="A2415" t="str">
-        <v>2024-04-29T13:46:00.000Z</v>
+        <v>2024-04-29T17:16:00.000Z</v>
       </c>
       <c r="B2415" t="str">
         <v>N/A</v>
